--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -834,9 +834,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>C0100002</v>
+      </c>
+      <c r="B22" t="str">
+        <v>오승경</v>
+      </c>
+      <c r="C22" t="str">
+        <v>대한상공회의소</v>
+      </c>
+      <c r="D22" t="str">
+        <v>22-X2-001652</v>
+      </c>
+      <c r="E22" t="str">
+        <v>유통관리사 2급</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Unknown Institution</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,33 +419,39 @@
         <v>certificateName</v>
       </c>
       <c r="F1" t="str">
+        <v>date</v>
+      </c>
+      <c r="G1" t="str">
         <v>result</v>
       </c>
-      <c r="G1" t="str">
-        <v>birth</v>
-      </c>
       <c r="H1" t="str">
-        <v>error</v>
+        <v>subs</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>B34203_5</v>
+        <v>B11234_7</v>
       </c>
       <c r="B2" t="str">
-        <v>김정호</v>
+        <v>장주용</v>
       </c>
       <c r="C2" t="str">
-        <v>대한상공회의소</v>
+        <v>국사편찬위원회</v>
       </c>
       <c r="D2" t="str">
-        <v>18-K9-079373</v>
+        <v>29-110061</v>
       </c>
       <c r="E2" t="str">
-        <v>컴퓨터활용능력 2급</v>
+        <v>한국사능력검정시험1급</v>
       </c>
       <c r="F2" t="str">
-        <v>Unknown Institution</v>
+        <v>29회차</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <v>한국사능력검정시험1급</v>
       </c>
     </row>
     <row r="3">
@@ -456,16 +462,22 @@
         <v>김정호</v>
       </c>
       <c r="C3" t="str">
-        <v>대한상공회의소</v>
+        <v>국사편찬위원회</v>
       </c>
       <c r="D3" t="str">
-        <v>14-I9-031980</v>
+        <v>25-104359</v>
       </c>
       <c r="E3" t="str">
-        <v>워드프로세서(2012년 이후)</v>
+        <v>한국사능력검정시험1급</v>
       </c>
       <c r="F3" t="str">
-        <v>Unknown Institution</v>
+        <v>25회차</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <v>한국사능력검정시험1급</v>
       </c>
     </row>
     <row r="4">
@@ -476,16 +488,22 @@
         <v>오유진</v>
       </c>
       <c r="C4" t="str">
-        <v>대한상공회의소</v>
+        <v>국사편찬위원회</v>
       </c>
       <c r="D4" t="str">
-        <v>15-K9-024989</v>
+        <v>38-118618</v>
       </c>
       <c r="E4" t="str">
-        <v>컴퓨터활용능력 2급</v>
+        <v>한국사능력검정시험1급</v>
       </c>
       <c r="F4" t="str">
-        <v>Unknown Institution</v>
+        <v>38회차</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <v>한국사능력검정시험1급</v>
       </c>
     </row>
     <row r="5">
@@ -496,16 +514,22 @@
         <v>김영훈</v>
       </c>
       <c r="C5" t="str">
-        <v>대한상공회의소</v>
+        <v>국사편찬위원회</v>
       </c>
       <c r="D5" t="str">
-        <v>13-I1-000046</v>
+        <v>60-102554</v>
       </c>
       <c r="E5" t="str">
-        <v>워드프로세서(2012년 이후)</v>
+        <v>한국사능력검정시험1급</v>
       </c>
       <c r="F5" t="str">
-        <v>Unknown Institution</v>
+        <v>60회차</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <v>한국사능력검정시험1급</v>
       </c>
     </row>
     <row r="6">
@@ -513,350 +537,30 @@
         <v>B11234_7</v>
       </c>
       <c r="B6" t="str">
-        <v>김영훈</v>
+        <v>김수진</v>
       </c>
       <c r="C6" t="str">
-        <v>대한상공회의소</v>
+        <v>국사편찬위원회</v>
       </c>
       <c r="D6" t="str">
-        <v>23-K9-06748</v>
+        <v>72-329128</v>
       </c>
       <c r="E6" t="str">
-        <v>컴퓨터활용능력 1급</v>
+        <v>한국사능력검정시험3급</v>
       </c>
       <c r="F6" t="str">
-        <v>Unknown Institution</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>B11234_7</v>
-      </c>
-      <c r="B7" t="str">
-        <v>김수진</v>
-      </c>
-      <c r="C7" t="str">
-        <v>대한상공회의소</v>
-      </c>
-      <c r="D7" t="str">
-        <v>04-I1-011210</v>
-      </c>
-      <c r="E7" t="str">
-        <v>워드프로세서 2급(2012년 이전)</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Unknown Institution</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>B11234_7</v>
-      </c>
-      <c r="B8" t="str">
-        <v>장주용</v>
-      </c>
-      <c r="C8" t="str">
-        <v>국사편찬위원회</v>
-      </c>
-      <c r="D8" t="str">
-        <v>29-110061</v>
-      </c>
-      <c r="E8" t="str">
-        <v>한국사능력검정시험1급</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Unknown Institution</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>B34203_5</v>
-      </c>
-      <c r="B9" t="str">
-        <v>김정호</v>
-      </c>
-      <c r="C9" t="str">
-        <v>국사편찬위원회</v>
-      </c>
-      <c r="D9" t="str">
-        <v>25-104359</v>
-      </c>
-      <c r="E9" t="str">
-        <v>한국사능력검정시험1급</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Unknown Institution</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>B43212_6</v>
-      </c>
-      <c r="B10" t="str">
-        <v>오유진</v>
-      </c>
-      <c r="C10" t="str">
-        <v>국사편찬위원회</v>
-      </c>
-      <c r="D10" t="str">
-        <v>38-118618</v>
-      </c>
-      <c r="E10" t="str">
-        <v>한국사능력검정시험1급</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Unknown Institution</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>B11234_7</v>
-      </c>
-      <c r="B11" t="str">
-        <v>김영훈</v>
-      </c>
-      <c r="C11" t="str">
-        <v>국사편찬위원회</v>
-      </c>
-      <c r="D11" t="str">
-        <v>60-102554</v>
-      </c>
-      <c r="E11" t="str">
-        <v>한국사능력검정시험1급</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Unknown Institution</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>B11234_7</v>
-      </c>
-      <c r="B12" t="str">
-        <v>김수진</v>
-      </c>
-      <c r="C12" t="str">
-        <v>국사편찬위원회</v>
-      </c>
-      <c r="D12" t="str">
-        <v>72-329128</v>
-      </c>
-      <c r="E12" t="str">
+        <v>72회차</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
         <v>한국사능력검정시험3급</v>
-      </c>
-      <c r="F12" t="str">
-        <v>Unknown Institution</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>B11234_7</v>
-      </c>
-      <c r="B13" t="str">
-        <v>김수진</v>
-      </c>
-      <c r="C13" t="str">
-        <v>한국데이터산업진흥원</v>
-      </c>
-      <c r="D13" t="str">
-        <v>ADsP-042019725</v>
-      </c>
-      <c r="E13" t="str">
-        <v>데이터분석준전문가(ADsP)</v>
-      </c>
-      <c r="F13" t="str">
-        <v>Unknown Institution</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>B11234_7</v>
-      </c>
-      <c r="B14" t="str">
-        <v>강태훈</v>
-      </c>
-      <c r="C14" t="str">
-        <v>한국생산성본부</v>
-      </c>
-      <c r="D14" t="str">
-        <v>A0012012107009177</v>
-      </c>
-      <c r="E14" t="str">
-        <v xml:space="preserve">	정보기술자격(ITQ)</v>
-      </c>
-      <c r="F14" t="str">
-        <v>Unknown Institution</v>
-      </c>
-      <c r="G14">
-        <v>19920730</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>B11234_7</v>
-      </c>
-      <c r="B15" t="str">
-        <v>이수민</v>
-      </c>
-      <c r="C15" t="str">
-        <v>한국생산성본부</v>
-      </c>
-      <c r="D15" t="str">
-        <v>A001-2022551-000131</v>
-      </c>
-      <c r="E15" t="str">
-        <v xml:space="preserve">	정보기술자격(ITQ)</v>
-      </c>
-      <c r="F15" t="str">
-        <v>Unknown Institution</v>
-      </c>
-      <c r="G15" t="str">
-        <v>06.03.02</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>B11234_7</v>
-      </c>
-      <c r="B16" t="str">
-        <v>강경석</v>
-      </c>
-      <c r="C16" t="str">
-        <v>국민연금공단_국민연금</v>
-      </c>
-      <c r="D16" t="str">
-        <v>20241107-H060-265154</v>
-      </c>
-      <c r="E16" t="str">
-        <v>국민연금가입자가입증명</v>
-      </c>
-      <c r="F16" t="str">
-        <v>Unknown Institution</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>B11234_7</v>
-      </c>
-      <c r="B17" t="str">
-        <v>최예원</v>
-      </c>
-      <c r="C17" t="str">
-        <v>opic</v>
-      </c>
-      <c r="D17" t="str">
-        <v>WTW6-HVW8-8FHX-D8O2-0A9Y</v>
-      </c>
-      <c r="E17" t="str">
-        <v>IM2</v>
-      </c>
-      <c r="F17" t="str">
-        <v>Unknown Institution</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>B11234_7</v>
-      </c>
-      <c r="B18" t="str">
-        <v>조영은</v>
-      </c>
-      <c r="C18" t="str">
-        <v>한국세무사회</v>
-      </c>
-      <c r="D18">
-        <v>220617102</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="str">
-        <v>유효하지 않은 번호 : 10~12글자 여야 함</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>B11234_7</v>
-      </c>
-      <c r="B19" t="str">
-        <v>이정우</v>
-      </c>
-      <c r="C19" t="str">
-        <v>건강보험자격득실확인서</v>
-      </c>
-      <c r="D19" t="str">
-        <v>1730-3002-0530-3240</v>
-      </c>
-      <c r="E19" t="str">
-        <v>건강보험자격득실확인서</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>B11234_7</v>
-      </c>
-      <c r="B20" t="str">
-        <v>최갑인</v>
-      </c>
-      <c r="C20" t="str">
-        <v>건강보험자격득실확인서</v>
-      </c>
-      <c r="D20" t="str">
-        <v>G202410020115989899</v>
-      </c>
-      <c r="E20" t="str">
-        <v>건강보험자격득실확인서</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>B11234_7</v>
-      </c>
-      <c r="B21" t="str">
-        <v>김명기</v>
-      </c>
-      <c r="C21" t="str">
-        <v>초본</v>
-      </c>
-      <c r="D21" t="str">
-        <v>1729-7520-6200-7059</v>
-      </c>
-      <c r="E21" t="str">
-        <v>초본</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>C0100002</v>
-      </c>
-      <c r="B22" t="str">
-        <v>오승경</v>
-      </c>
-      <c r="C22" t="str">
-        <v>대한상공회의소</v>
-      </c>
-      <c r="D22" t="str">
-        <v>22-X2-001652</v>
-      </c>
-      <c r="E22" t="str">
-        <v>유통관리사 2급</v>
-      </c>
-      <c r="F22" t="str">
-        <v>Unknown Institution</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,148 +419,262 @@
         <v>certificateName</v>
       </c>
       <c r="F1" t="str">
-        <v>date</v>
+        <v>birth</v>
       </c>
       <c r="G1" t="str">
-        <v>result</v>
+        <v>__EMPTY_1</v>
       </c>
       <c r="H1" t="str">
         <v>subs</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="I1" t="str">
+        <v>result</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>B11234_7</v>
+        <v>V2501004</v>
       </c>
       <c r="B2" t="str">
-        <v>장주용</v>
+        <v>오현아</v>
       </c>
       <c r="C2" t="str">
-        <v>국사편찬위원회</v>
+        <v>한국생산성본부</v>
       </c>
       <c r="D2" t="str">
-        <v>29-110061</v>
+        <v>GA10124107076654</v>
       </c>
       <c r="E2" t="str">
-        <v>한국사능력검정시험1급</v>
+        <v>GTQ포토샵1급</v>
       </c>
       <c r="F2" t="str">
-        <v>29회차</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+        <v>01.02.14</v>
+      </c>
+      <c r="G2" t="str" xml:space="preserve">
+        <v xml:space="preserve">현재까지 가능한 institution_x000d_
+: [한국세무사회,대한상공회의소,국사편찬위원회,한국생산성본부,opic,초본,건강보험자격득실확인서 ]_x000d_
+※ passnum -&gt; 자격번호 등 진위여부할 때 필요한거_x000d_
+institution : 가능한 institution만 넣을 것_x000d_
+certificateName : 자격증 or 서류명</v>
       </c>
       <c r="H2" t="str">
-        <v>한국사능력검정시험1급</v>
+        <v>GTQ(그래픽기술자격)</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>B34203_5</v>
+        <v>V2501004</v>
       </c>
       <c r="B3" t="str">
-        <v>김정호</v>
+        <v>오현아</v>
       </c>
       <c r="C3" t="str">
-        <v>국사편찬위원회</v>
+        <v>한국생산성본부</v>
       </c>
       <c r="D3" t="str">
-        <v>25-104359</v>
+        <v>A001-2011106-011481</v>
       </c>
       <c r="E3" t="str">
-        <v>한국사능력검정시험1급</v>
+        <v>정보기술자격(ITQ)한글파워포인트 A등급</v>
       </c>
       <c r="F3" t="str">
-        <v>25회차</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+        <v>01.02.14</v>
       </c>
       <c r="H3" t="str">
-        <v>한국사능력검정시험1급</v>
+        <v>정보기술자격(ITQ)</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>B43212_6</v>
+        <v>V2501004</v>
       </c>
       <c r="B4" t="str">
-        <v>오유진</v>
+        <v>오현아</v>
       </c>
       <c r="C4" t="str">
-        <v>국사편찬위원회</v>
+        <v>한국생산성본부</v>
       </c>
       <c r="D4" t="str">
-        <v>38-118618</v>
+        <v>A001-2011106-011481</v>
       </c>
       <c r="E4" t="str">
-        <v>한국사능력검정시험1급</v>
+        <v>정보기술자격(ITQ) 아래한글 A등급</v>
       </c>
       <c r="F4" t="str">
-        <v>38회차</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>01.02.14</v>
       </c>
       <c r="H4" t="str">
-        <v>한국사능력검정시험1급</v>
+        <v>정보기술자격(ITQ)</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>B11234_7</v>
+        <v>V2501004</v>
       </c>
       <c r="B5" t="str">
-        <v>김영훈</v>
+        <v>오현아</v>
       </c>
       <c r="C5" t="str">
-        <v>국사편찬위원회</v>
+        <v>한국생산성본부</v>
       </c>
       <c r="D5" t="str">
-        <v>60-102554</v>
+        <v>A001-2011106-011481</v>
       </c>
       <c r="E5" t="str">
-        <v>한국사능력검정시험1급</v>
+        <v>정보기술자격(ITQ)인터넷 A등급</v>
       </c>
       <c r="F5" t="str">
-        <v>60회차</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+        <v>01.02.14</v>
       </c>
       <c r="H5" t="str">
-        <v>한국사능력검정시험1급</v>
+        <v>정보기술자격(ITQ)</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>B11234_7</v>
+        <v>V2501004</v>
       </c>
       <c r="B6" t="str">
-        <v>김수진</v>
+        <v>오현아</v>
       </c>
       <c r="C6" t="str">
-        <v>국사편찬위원회</v>
+        <v>한국생산성본부</v>
       </c>
       <c r="D6" t="str">
-        <v>72-329128</v>
+        <v>A001-2011106-011481</v>
       </c>
       <c r="E6" t="str">
-        <v>한국사능력검정시험3급</v>
+        <v>정보기술자격(ITQ)한글엑셀 A등급</v>
       </c>
       <c r="F6" t="str">
-        <v>72회차</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+        <v>01.02.14</v>
       </c>
       <c r="H6" t="str">
-        <v>한국사능력검정시험3급</v>
+        <v>정보기술자격(ITQ)</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>J2501005</v>
+      </c>
+      <c r="B7" t="str">
+        <v>임채정</v>
+      </c>
+      <c r="C7" t="str">
+        <v>한국생산성본부</v>
+      </c>
+      <c r="D7" t="str">
+        <v>A001-2024301-001897</v>
+      </c>
+      <c r="E7" t="str">
+        <v>정보기술자격(ITQ) 아래한글</v>
+      </c>
+      <c r="F7" t="str">
+        <v>97.09.04</v>
+      </c>
+      <c r="H7" t="str">
+        <v>정보기술자격(ITQ)</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>J2501005</v>
+      </c>
+      <c r="B8" t="str">
+        <v>임채정</v>
+      </c>
+      <c r="C8" t="str">
+        <v>한국생산성본부</v>
+      </c>
+      <c r="D8" t="str">
+        <v>GA10123103006909</v>
+      </c>
+      <c r="E8" t="str">
+        <v>GTQ포토샵1급</v>
+      </c>
+      <c r="F8" t="str">
+        <v>97.09.04</v>
+      </c>
+      <c r="H8" t="str">
+        <v>GTQ(그래픽기술자격)</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>J2501005</v>
+      </c>
+      <c r="B9" t="str">
+        <v>임채정</v>
+      </c>
+      <c r="C9" t="str">
+        <v>한국생산성본부</v>
+      </c>
+      <c r="D9" t="str">
+        <v>A001-2024301-001897</v>
+      </c>
+      <c r="E9" t="str">
+        <v>정보기술자격(ITQ) 한글파워포인트</v>
+      </c>
+      <c r="F9" t="str">
+        <v>97.09.04</v>
+      </c>
+      <c r="H9" t="str">
+        <v>정보기술자격(ITQ)</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>J2501005</v>
+      </c>
+      <c r="B10" t="str">
+        <v>임채정</v>
+      </c>
+      <c r="C10" t="str">
+        <v>한국생산성본부</v>
+      </c>
+      <c r="D10" t="str">
+        <v>A001-2024301-001897</v>
+      </c>
+      <c r="E10" t="str">
+        <v>정보기술자격(ITQ) 한글엑셀</v>
+      </c>
+      <c r="F10" t="str">
+        <v>97.09.04</v>
+      </c>
+      <c r="H10" t="str">
+        <v>정보기술자격(ITQ)</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,150 +421,88 @@
       <c r="F1" t="str">
         <v>result</v>
       </c>
+      <c r="G1" t="str">
+        <v>issuedDate</v>
+      </c>
+      <c r="H1" t="str">
+        <v>extraNum</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>A2501020</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>허정원</v>
+        <v>김수미</v>
       </c>
       <c r="C2" t="str">
-        <v>건강보험자격득실확인서</v>
+        <v>국민연금가입자증명</v>
       </c>
       <c r="D2" t="str">
-        <v>G202504150334641234</v>
+        <v>1744-7195-3509-1521</v>
       </c>
       <c r="E2" t="str">
-        <v>건강보험자격득실확인서</v>
+        <v>국민연금가입자증명</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>A2501135</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>이구슬</v>
+        <v>백계중</v>
       </c>
       <c r="C3" t="str">
-        <v>건강보험자격득실확인서</v>
+        <v>국민연금가입자증명</v>
       </c>
       <c r="D3" t="str">
-        <v>G202503030261489567</v>
+        <v>20250415-H081-877412</v>
       </c>
       <c r="E3" t="str">
-        <v>건강보험자격득실확인서</v>
+        <v>국민연금가입자증명</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3" t="str">
+        <v>2025-04-15</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Q912</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>A2501201</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>남휘은</v>
+        <v>박해리</v>
       </c>
       <c r="C4" t="str">
-        <v>건강보험자격득실확인서</v>
+        <v>국민연금가입자증명</v>
       </c>
       <c r="D4" t="str">
-        <v>G202504150147626739</v>
+        <v>20250416-H506-877687</v>
       </c>
       <c r="E4" t="str">
-        <v>건강보험자격득실확인서</v>
+        <v>국민연금가입자증명</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>A2501394</v>
-      </c>
-      <c r="B5" t="str">
-        <v>양재홍</v>
-      </c>
-      <c r="C5" t="str">
-        <v>건강보험자격득실확인서</v>
-      </c>
-      <c r="D5" t="str">
-        <v>G202504150147675633</v>
-      </c>
-      <c r="E5" t="str">
-        <v>건강보험자격득실확인서</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>A2501557</v>
-      </c>
-      <c r="B6" t="str">
-        <v>정세희</v>
-      </c>
-      <c r="C6" t="str">
-        <v>건강보험자격득실확인서</v>
-      </c>
-      <c r="D6" t="str">
-        <v>G202504160767820270</v>
-      </c>
-      <c r="E6" t="str">
-        <v>건강보험자격득실확인서</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>B2501002</v>
-      </c>
-      <c r="B7" t="str">
-        <v>윤서</v>
-      </c>
-      <c r="C7" t="str">
-        <v>건강보험자격득실확인서</v>
-      </c>
-      <c r="D7" t="str">
-        <v>G202504160328704768</v>
-      </c>
-      <c r="E7" t="str">
-        <v>건강보험자격득실확인서</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>B2501030</v>
-      </c>
-      <c r="B8" t="str">
-        <v>김용완</v>
-      </c>
-      <c r="C8" t="str">
-        <v>건강보험자격득실확인서</v>
-      </c>
-      <c r="D8" t="str">
-        <v>G202504160235721234</v>
-      </c>
-      <c r="E8" t="str">
-        <v>건강보험자격득실확인서</v>
-      </c>
-      <c r="F8">
         <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2024-03-23</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Q343</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
   </ignoredErrors>
 </worksheet>
 </file>